--- a/Linear Programming Example in Excel.xlsx
+++ b/Linear Programming Example in Excel.xlsx
@@ -5,68 +5,99 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summerpurschke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summerpurschke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3374E0-FC75-684C-9951-2F60E1E361DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98701C1E-FF35-8747-BEE3-C426FD317D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{8776E2B2-DFFE-7E41-8A1F-D4B000816B92}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{8776E2B2-DFFE-7E41-8A1F-D4B000816B92}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem Description" sheetId="2" r:id="rId1"/>
-    <sheet name="Problem Formulation" sheetId="1" r:id="rId2"/>
+    <sheet name="Personnel Scheduling" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio Optimization " sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem Formulation'!$B$14:$H$14</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$23:$H$23</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Portfolio Optimization '!$G$9:$G$11</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem Formulation'!$B$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem Formulation'!$B$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem Formulation'!$B$18</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem Formulation'!$B$19</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Problem Formulation'!$B$20</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Problem Formulation'!$B$21</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Problem Formulation'!$B$22</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Portfolio Optimization '!$B$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Portfolio Optimization '!$C$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$27</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$28</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$29</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$30</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$31</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem Formulation'!$B$15</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Personnel Scheduling'!$B$24</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Portfolio Optimization '!$D$18</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem Formulation'!$J$3</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Problem Formulation'!$J$4</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Problem Formulation'!$J$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Problem Formulation'!$J$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Problem Formulation'!$J$7</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Problem Formulation'!$J$8</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Problem Formulation'!$J$9</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Portfolio Optimization '!$D$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Portfolio Optimization '!$D$14</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Personnel Scheduling'!$J$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Monday</t>
   </si>
@@ -205,13 +236,89 @@
   </si>
   <si>
     <t>- Number of employees required each day is as follows:</t>
+  </si>
+  <si>
+    <t>Portfolio Optimization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = Minimum expected revenue </t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>i = shares of stock i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Variance of the total revenue = 100X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">^2 + 1600X2^2 + 100X3^2 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock </t>
+  </si>
+  <si>
+    <t>Expected Price</t>
+  </si>
+  <si>
+    <t>Bull Market</t>
+  </si>
+  <si>
+    <t>Bear Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance of the price </t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minumum Expected Profit </t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Total Spending</t>
+  </si>
+  <si>
+    <t>Expected Profit</t>
+  </si>
+  <si>
+    <t>Sum of Variance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,8 +351,30 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,16 +449,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,6 +478,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,87 +824,568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8720407-053A-AA41-9E31-2CDD485533F2}">
-  <dimension ref="A2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19834BBC-A3B3-7849-AD91-76BFE84A3F52}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B7">
         <v>110</v>
       </c>
-      <c r="C8">
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D8">
+      <c r="D7">
         <v>150</v>
       </c>
-      <c r="E8">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="G8">
+      <c r="G7">
         <v>160</v>
       </c>
-      <c r="H8">
+      <c r="H7">
         <v>120</v>
       </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3.3333333333333357</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="E23" s="9">
+        <v>13.333333333333336</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10">
+        <f>SUM(B23:H23)</f>
+        <v>163.33333333333331</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12" cm="1">
+        <f t="array" ref="B25">SUMPRODUCT(B23:H23*B12:H12)</f>
+        <v>110</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12" cm="1">
+        <f t="array" ref="B26">SUMPRODUCT(B23:H23*B13:H13)</f>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12" cm="1">
+        <f t="array" ref="B27">SUMPRODUCT(B23:H23*B14:H14)</f>
+        <v>150</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12" cm="1">
+        <f t="array" ref="B28">SUMPRODUCT(B23:H23*B15:H15)</f>
+        <v>70</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="12" cm="1">
+        <f t="array" ref="B29">SUMPRODUCT(B23:H23*B16:H16)</f>
+        <v>70</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12" cm="1">
+        <f t="array" ref="B30">SUMPRODUCT(B23:H23*B17:H17)</f>
+        <v>160</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12" cm="1">
+        <f t="array" ref="B31">SUMPRODUCT(B23:H23*B18:H18)</f>
+        <v>160</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -754,467 +1394,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19834BBC-A3B3-7849-AD91-76BFE84A3F52}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9803EE-1398-6C4B-AF0A-D84D307DE3D6}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="6" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8">
+        <v>100</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1333.3333333332541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8">
+        <v>90</v>
+      </c>
+      <c r="E10" s="8">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F10" s="8">
+        <v>1600</v>
+      </c>
+      <c r="G10" s="14">
+        <v>833.33333333342387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
+        <v>100</v>
+      </c>
+      <c r="G11" s="14">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.3333333333333357</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>53.333333333333336</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13.333333333333336</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <f>SUM(B14:H14)</f>
-        <v>163.33333333333331</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4" cm="1">
-        <f t="array" ref="B16">SUMPRODUCT(B14:H14*B3:H3)</f>
-        <v>110</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" cm="1">
-        <f t="array" ref="B17">SUMPRODUCT(B14:H14*B4:H4)</f>
-        <v>96.666666666666657</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" cm="1">
-        <f t="array" ref="B18">SUMPRODUCT(B14:H14*B5:H5)</f>
-        <v>150</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" cm="1">
-        <f t="array" ref="B19">SUMPRODUCT(B14:H14*B6:H6)</f>
-        <v>70</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4" cm="1">
-        <f t="array" ref="B20">SUMPRODUCT(B14:H14*B7:H7)</f>
-        <v>70</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" cm="1">
-        <f t="array" ref="B21">SUMPRODUCT(B14:H14*B8:H8)</f>
-        <v>160</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" cm="1">
-        <f t="array" ref="B22">SUMPRODUCT(B14:H14*B9:H9)</f>
-        <v>160</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8">
+        <v>115000</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <f>SUMPRODUCT(B9:B11,G9:G11)</f>
+        <v>99999.999999999665</v>
+      </c>
+      <c r="C18" s="8">
+        <f>SUMPRODUCT(C9:C11,G9:G11)</f>
+        <v>115000.00000000017</v>
+      </c>
+      <c r="D18" s="8">
+        <f>G9^2 * F9 + G10^2* F10+G11^2*F11</f>
+        <v>1288888888.8891094</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
+  <mergeCells count="2">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>